--- a/model_inputs/labour_reports/tech_labour_hours.xlsx
+++ b/model_inputs/labour_reports/tech_labour_hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\Work\BME Service Delivery Cost Model\data_inputs\labour_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\biomed-service-delivery-cost-model\model_inputs\labour_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A8157-CF50-4B5A-B423-D94ED346D00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB9DAAA-B100-4909-B930-485DBCA79A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="945" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vacation Summary" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>description</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>DI Apprentice</t>
   </si>
 </sst>
 </file>
@@ -530,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,10 +616,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>42024.365714285712</v>
@@ -650,32 +653,32 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>49094.782500000001</v>
+        <v>42024.365714285712</v>
       </c>
       <c r="D4" s="2">
         <f>C4/7.5</f>
-        <v>6545.9710000000005</v>
+        <v>5603.2487619047615</v>
       </c>
       <c r="E4" s="2">
         <f>C4/1957.5</f>
-        <v>25.080348659003832</v>
+        <v>21.468386060937785</v>
       </c>
       <c r="F4" s="3">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3">
         <f>'General Summary'!$C$2-F4</f>
-        <v>195.95</v>
+        <v>198.95</v>
       </c>
       <c r="H4" s="9">
         <f>F4/'General Summary'!$C$2</f>
-        <v>0.169527442254715</v>
+        <v>0.15681288408561136</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
@@ -686,6 +689,34 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>49094.782500000001</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5/7.5</f>
+        <v>6545.9710000000005</v>
+      </c>
+      <c r="E5" s="2">
+        <f>C5/1957.5</f>
+        <v>25.080348659003832</v>
+      </c>
+      <c r="F5" s="3">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3">
+        <f>'General Summary'!$C$2-F5</f>
+        <v>195.95</v>
+      </c>
+      <c r="H5" s="9">
+        <f>F5/'General Summary'!$C$2</f>
+        <v>0.169527442254715</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -712,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F68F46B-DAE6-498C-BEAE-1C75E8FF4B0C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/model_inputs/labour_reports/tech_labour_hours.xlsx
+++ b/model_inputs/labour_reports/tech_labour_hours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\biomed-service-delivery-cost-model\model_inputs\labour_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\LMBME Service Delivery Cost Model\model_inputs\labour_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB9DAAA-B100-4909-B930-485DBCA79A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303A7165-9A35-4988-9E5C-1FBD3CCE5FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,26 +622,27 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>42024.365714285712</v>
+        <f>(C2+C4)/2</f>
+        <v>33306.425293040273</v>
       </c>
       <c r="D3" s="2">
         <f>C3/7.5</f>
-        <v>5603.2487619047615</v>
+        <v>4440.8567057387027</v>
       </c>
       <c r="E3" s="2">
         <f>C3/1957.5</f>
-        <v>21.468386060937785</v>
+        <v>17.014776650339858</v>
       </c>
       <c r="F3" s="3">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3">
         <f>'General Summary'!$C$2-F3</f>
-        <v>198.95</v>
+        <v>203.95</v>
       </c>
       <c r="H3" s="9">
         <f>F3/'General Summary'!$C$2</f>
-        <v>0.15681288408561136</v>
+        <v>0.13562195380377198</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
@@ -811,7 +812,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/model_inputs/labour_reports/tech_labour_hours.xlsx
+++ b/model_inputs/labour_reports/tech_labour_hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\LMBME Service Delivery Cost Model\model_inputs\labour_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\biomed-service-delivery-cost-model\model_inputs\labour_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303A7165-9A35-4988-9E5C-1FBD3CCE5FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF71EB14-4C3F-4C02-BC6E-36B46705B973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="3585" windowWidth="21600" windowHeight="11265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vacation Summary" sheetId="1" r:id="rId1"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F68F46B-DAE6-498C-BEAE-1C75E8FF4B0C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
